--- a/biology/Botanique/Irvingia/Irvingia.xlsx
+++ b/biology/Botanique/Irvingia/Irvingia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Irvingia est un genre de plantes à fleurs de la famille des Irvingiaceae.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (7 août 2017)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (7 août 2017) :
 Irvingia excelsa Mildbr.
 Irvingia gabonensis (Aubry-Lecomte ex O'Rorke) Baill.
 Irvingia grandifolia (Engl.) Engl.
@@ -521,7 +535,7 @@
 Irvingia robur Mildbr.
 Irvingia smithii Hook.f.
 Irvingia wombulu Vermoesen
-Selon Catalogue of Life                                   (7 août 2017)[3] :
+Selon Catalogue of Life                                   (7 août 2017) :
 Irvingia excelsa Mildbr.
 Irvingia gabonensis (Aubry-Lecomte ex O'Rorke) Baill.
 Irvingia grandifolia (Engl.) Engl.
@@ -529,7 +543,7 @@
 Irvingia robur Mildbr.
 Irvingia smithii Hook.f.
 Irvingia wombolu Vermoesen
-Selon World Checklist of Selected Plant Families (WCSP)  (7 août 2017)[4] :
+Selon World Checklist of Selected Plant Families (WCSP)  (7 août 2017) :
 Irvingia excelsa Mildbr., Notizbl. Königl. Bot. Gart. Berlin (1913)
 Irvingia gabonensis (Aubry-Lecomte ex O'Rorke) Baill. (1884)
 Irvingia grandifolia (Engl.) Engl. (1911)
@@ -537,11 +551,11 @@
 Irvingia robur Mildbr., Notizbl. Königl. Bot. Gart. Berlin (1913)
 Irvingia smithii Hook.f. (1860)
 Irvingia tenuinucleata Tiegh., Ann. Sci. Nat., Bot., sér. 9 (1905)
-Selon NCBI  (7 août 2017)[5] :
+Selon NCBI  (7 août 2017) :
 Irvingia gabonensis
 Irvingia malayana
 Irvingia robur
-Selon The Plant List            (7 août 2017)[6] :
+Selon The Plant List            (7 août 2017) :
 Irvingia excelsa Mildbr.
 Irvingia gabonensis (Aubry-Lecomte ex O'Rorke) Baill.
 Irvingia grandifolia (Engl.) Engl.
@@ -549,7 +563,7 @@
 Irvingia robur Mildbr.
 Irvingia smithii Hook.f.
 Irvingia tenuinucleata Tiegh.
-Selon Tropicos                                           (7 août 2017)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (7 août 2017) (Attention liste brute contenant possiblement des synonymes) :
 Irvingia australiana (F. Muell.) F. Muell.
 Irvingia barteri Hook. f.
 Irvingia excelsa Mildbr.
